--- a/config_1.12/game_module_config.xlsx
+++ b/config_1.12/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="964">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4062,6 +4062,18 @@
   </si>
   <si>
     <t>活动模板，永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_czzk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys_Act_CZZKManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4608,13 +4620,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I313"/>
+  <dimension ref="A1:I314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C290" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D314" sqref="D314"/>
+      <selection pane="bottomRight" activeCell="A314" sqref="A314:XFD314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12611,6 +12623,29 @@
       </c>
       <c r="I313" s="15" t="s">
         <v>960</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A314" s="16">
+        <v>313</v>
+      </c>
+      <c r="B314" s="18" t="s">
+        <v>961</v>
+      </c>
+      <c r="C314" s="15" t="s">
+        <v>962</v>
+      </c>
+      <c r="D314" s="18" t="s">
+        <v>963</v>
+      </c>
+      <c r="E314" s="17">
+        <v>0</v>
+      </c>
+      <c r="F314" s="17">
+        <v>0</v>
+      </c>
+      <c r="G314" s="17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
